--- a/mouse_proteomics/plotting_protein_changes.xlsx
+++ b/mouse_proteomics/plotting_protein_changes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferwilson/Documents/phagocytosis_beta2Agonists/mouse_proteomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7AF7A-B55B-4941-B771-25ED6F5E3D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C25681-862E-8749-854E-EDD94E06638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="5080" windowWidth="25660" windowHeight="19120" xr2:uid="{9A9BF76C-7D80-1D4C-BA5C-5A3634190ECD}"/>
+    <workbookView xWindow="3260" yWindow="6960" windowWidth="25660" windowHeight="19120" xr2:uid="{9A9BF76C-7D80-1D4C-BA5C-5A3634190ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -12078,7 +12078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E29F-BF9B-E54D-A877-1E42A23EB308}">
   <dimension ref="C3:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U156" sqref="U156"/>
     </sheetView>
   </sheetViews>

--- a/mouse_proteomics/plotting_protein_changes.xlsx
+++ b/mouse_proteomics/plotting_protein_changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferwilson/Documents/phagocytosis_beta2Agonists/mouse_proteomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C25681-862E-8749-854E-EDD94E06638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD070641-1AE6-A24B-BF2D-CA0F2DC86FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="6960" windowWidth="25660" windowHeight="19120" xr2:uid="{9A9BF76C-7D80-1D4C-BA5C-5A3634190ECD}"/>
+    <workbookView xWindow="4760" yWindow="520" windowWidth="33820" windowHeight="29220" xr2:uid="{9A9BF76C-7D80-1D4C-BA5C-5A3634190ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4731,7 +4731,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Protein fold change in mabuterol-treated</a:t>
+              <a:t>Protein fold changes in mabuterol-treated</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0">
@@ -4741,7 +4741,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t> vs vehicle treated 5xFAD mice</a:t>
+              <a:t> vs vehicle-treated 5xFAD mice</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -5508,7 +5508,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>P-value for protein fold</a:t>
+              <a:t>P-values for protein fold</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0">
@@ -5518,7 +5518,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t> changes in vehicle-treated vs. non-carrier 5xFAD mice</a:t>
+              <a:t> changes in mabuterol-treated vs. vehicle-treated 5xFAD mice</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -11633,9 +11633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11671,7 +11671,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -12078,7 +12078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E29F-BF9B-E54D-A877-1E42A23EB308}">
   <dimension ref="C3:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <selection activeCell="U156" sqref="U156"/>
     </sheetView>
   </sheetViews>

--- a/mouse_proteomics/plotting_protein_changes.xlsx
+++ b/mouse_proteomics/plotting_protein_changes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferwilson/Documents/phagocytosis_beta2Agonists/mouse_proteomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD070641-1AE6-A24B-BF2D-CA0F2DC86FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A0332-AF9D-F540-BF7F-3B0597C778EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4760" yWindow="520" windowWidth="33820" windowHeight="29220" xr2:uid="{9A9BF76C-7D80-1D4C-BA5C-5A3634190ECD}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
-  <si>
-    <t>5X-PROP v 5X-VEH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>fold change</t>
   </si>
@@ -46,127 +43,31 @@
     <t>pvalue</t>
   </si>
   <si>
-    <t>Tmod1</t>
-  </si>
-  <si>
     <t>Aldh18a1</t>
   </si>
   <si>
     <t>Fbxo41</t>
   </si>
   <si>
-    <t>Nucb1</t>
-  </si>
-  <si>
-    <t>Mff</t>
-  </si>
-  <si>
-    <t>Ctsl</t>
-  </si>
-  <si>
     <t>Rab1A</t>
   </si>
   <si>
-    <t>Arl8b</t>
-  </si>
-  <si>
-    <t>Ppfia2</t>
-  </si>
-  <si>
-    <t>Mtx3</t>
-  </si>
-  <si>
     <t>Raly</t>
   </si>
   <si>
-    <t>Tbc1d17</t>
-  </si>
-  <si>
-    <t>Tjp2</t>
-  </si>
-  <si>
-    <t>Slc25a42</t>
-  </si>
-  <si>
-    <t>Cul2</t>
-  </si>
-  <si>
-    <t>cllorf54</t>
-  </si>
-  <si>
     <t>Rin1</t>
   </si>
   <si>
-    <t>Hnrnph3</t>
-  </si>
-  <si>
-    <t>Metap2</t>
-  </si>
-  <si>
-    <t>Atl3</t>
-  </si>
-  <si>
-    <t>Epn2</t>
-  </si>
-  <si>
-    <t>S100a13</t>
-  </si>
-  <si>
-    <t>Sord</t>
-  </si>
-  <si>
-    <t>Aip</t>
-  </si>
-  <si>
     <t>Septin4</t>
   </si>
   <si>
     <t>Lman2</t>
   </si>
   <si>
-    <t>Timm29</t>
-  </si>
-  <si>
-    <t>Anp32e</t>
-  </si>
-  <si>
-    <t>Htt</t>
-  </si>
-  <si>
-    <t>Ube2k</t>
-  </si>
-  <si>
-    <t>Gabrb3</t>
-  </si>
-  <si>
-    <t>Arl8a</t>
-  </si>
-  <si>
-    <t>Tm9sf2</t>
-  </si>
-  <si>
-    <t>Hmgcs1</t>
-  </si>
-  <si>
     <t>Exoc2</t>
   </si>
   <si>
-    <t>Cacna1b</t>
-  </si>
-  <si>
-    <t>Msi2</t>
-  </si>
-  <si>
     <t>Pafah1b3</t>
-  </si>
-  <si>
-    <t>Septin3</t>
-  </si>
-  <si>
-    <t>Suox</t>
-  </si>
-  <si>
-    <t>Cul4a</t>
   </si>
   <si>
     <t>5X-VEH v NCAR</t>
@@ -505,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -641,19 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -716,19 +604,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -836,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,41 +731,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,1977 +776,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Protein fold change in propranolol-treated vs. vehicle</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> treated 5xFAD mice</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="25"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002C-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002E-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="27"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000030-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="29"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="31"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="32"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002A-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="34"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="35"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="36"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="37"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="38"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="39"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="40"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-499B-5F45-A2E2-DB59A04EBA71}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$5:$C$45</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>Tmod1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Aldh18a1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fbxo41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Nucb1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mff</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ctsl</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Rab1A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Arl8b</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Ppfia2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Mtx3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Raly</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tbc1d17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Tjp2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Slc25a42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Cul2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>cllorf54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Rin1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Hnrnph3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Metap2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Atl3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Epn2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>S100a13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Sord</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Aip</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Septin4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Lman2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Timm29</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Anp32e</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Htt</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Ube2k</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Gabrb3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Arl8a</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Tm9sf2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Hmgcs1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Exoc2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Cacna1b</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Msi2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Pafah1b3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Septin3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Suox</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Cul4a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$5:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.96875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5066666666666668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4722222222222223</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3809523809523814</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.291666666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2857142857142856</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2153846153846155</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0833333333333335</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0740740740740744</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0571428571428574</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.44999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.44444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.43076923076923074</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.42790697674418604</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.42352941176470588</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.41379310344827591</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.39999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-499B-5F45-A2E2-DB59A04EBA71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="30"/>
-        <c:axId val="1413446016"/>
-        <c:axId val="1409840672"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1413446016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1409840672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1409840672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Fold Change</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1413446016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>P-value for protein fold</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> changes in propranolol-treated vs. vehicle-treated 5xFAD mice</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$5:$C$45</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>Tmod1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Aldh18a1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fbxo41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Nucb1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mff</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ctsl</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Rab1A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Arl8b</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Ppfia2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Mtx3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Raly</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tbc1d17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Tjp2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Slc25a42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Cul2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>cllorf54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Rin1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Hnrnph3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Metap2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Atl3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Epn2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>S100a13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Sord</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Aip</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Septin4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Lman2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Timm29</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Anp32e</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Htt</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Ube2k</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Gabrb3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Arl8a</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Tm9sf2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Hmgcs1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Exoc2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Cacna1b</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Msi2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Pafah1b3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Septin3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Suox</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Cul4a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$5:$E$45</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>5.5743110261093813E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.13369004948764E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6134167192659953E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4310134992305598E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9416571556465754E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6562152332635144E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3667788269231558E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3242675567716772E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0311818108086743E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6670819779886746E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9666208661376795E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5686908572796543E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8802725694710299E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4585081678644341E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1102106219000857E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7414862617056457E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.0348700921589644E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1745529210126854E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2275947313340215E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0189936164502261E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9471316278634696E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.742065558431962E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.778435101099011E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.3901103542228937E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.2645999311240107E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.8566856559801017E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.2817934375614376E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9509152798543647E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.5749338586498631E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.5633561348936086E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.2505371478556706E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.5298574762530686E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.1257552636410874E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.6562152332635144E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.1742978465236637E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.7749551350623717E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.7172643339589356E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.8622747383376138E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.2307551821486282E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.2373541451080928E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.7749551350623717E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F042-EE40-A631-870978C6A6C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="30"/>
-        <c:axId val="1413446016"/>
-        <c:axId val="1409840672"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1413446016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1409840672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1409840672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>P-value</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1413446016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3405,7 +1301,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$56:$C$113</c:f>
+              <c:f>Sheet1!$C$3:$C$60</c:f>
               <c:strCache>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
@@ -3587,7 +1483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$56:$D$113</c:f>
+              <c:f>Sheet1!$D$3:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="58"/>
@@ -3995,7 +1891,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4103,7 +1999,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$56:$C$113</c:f>
+              <c:f>Sheet1!$C$3:$C$60</c:f>
               <c:strCache>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
@@ -4285,7 +2181,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$56:$E$113</c:f>
+              <c:f>Sheet1!$E$3:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="58"/>
@@ -4693,7 +2589,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5048,7 +2944,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$118:$C$147</c:f>
+              <c:f>Sheet1!$C$65:$C$94</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -5146,7 +3042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$118:$D$147</c:f>
+              <c:f>Sheet1!$D$65:$D$94</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5470,7 +3366,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5578,7 +3474,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$118:$C$147</c:f>
+              <c:f>Sheet1!$C$65:$C$94</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -5676,7 +3572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$118:$E$147</c:f>
+              <c:f>Sheet1!$E$65:$E$94</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6000,7 +3896,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6336,7 +4232,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$154:$C$177</c:f>
+              <c:f>Sheet1!$C$101:$C$124</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -6416,7 +4312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$154:$D$177</c:f>
+              <c:f>Sheet1!$D$101:$D$124</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6722,7 +4618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6830,7 +4726,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$154:$C$177</c:f>
+              <c:f>Sheet1!$C$101:$C$124</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -6910,7 +4806,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$154:$E$177</c:f>
+              <c:f>Sheet1!$E$101:$E$124</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7378,60 +5274,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -10462,1041 +8304,33 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFBBA0C-E7E4-614E-BEBB-26B327AC119C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF67446-3A91-6D47-8F43-547DC72C26A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11514,21 +8348,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36869889-D252-FA46-9CFC-ABB9E24E48AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F238473-0315-594A-85C7-C9F682BFF3B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11552,21 +8386,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF67446-3A91-6D47-8F43-547DC72C26A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE163B1A-724D-DF4C-8722-6C22687D32C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11590,21 +8424,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F238473-0315-594A-85C7-C9F682BFF3B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB02F49-6793-6640-B0BF-8E19B7B0E13C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11628,21 +8462,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE163B1A-724D-DF4C-8722-6C22687D32C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4009F330-D51C-E340-BC20-F9CFFF632E1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11666,89 +8500,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB02F49-6793-6640-B0BF-8E19B7B0E13C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4009F330-D51C-E340-BC20-F9CFFF632E1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11770,7 +8528,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12076,1759 +8834,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E29F-BF9B-E54D-A877-1E42A23EB308}">
-  <dimension ref="C3:E177"/>
+  <dimension ref="C1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="U156" sqref="U156"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    <row r="1" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.7996600196887019E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.1589184002533635E-2</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E5" s="6">
-        <v>5.5743110261093813E-3</v>
+        <v>9.6789516482072881E-3</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E6" s="6">
-        <v>4.13369004948764E-2</v>
+        <v>3.3042526634281658E-2</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5">
-        <v>2.96875</v>
+        <v>2.5961538461538463</v>
       </c>
       <c r="E7" s="6">
-        <v>5.6134167192659953E-3</v>
+        <v>6.6011582476433871E-4</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
-        <v>2.8125</v>
+        <v>2.4827586206896552</v>
       </c>
       <c r="E8" s="6">
-        <v>3.4310134992305598E-3</v>
+        <v>5.9297001755287849E-4</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5">
-        <v>2.6999999999999997</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="E9" s="6">
-        <v>2.9416571556465754E-2</v>
+        <v>4.1666638862107239E-3</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="E10" s="6">
-        <v>2.6562152332635144E-2</v>
+        <v>2.7172643339589356E-2</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5">
-        <v>2.5066666666666668</v>
+        <v>2.3571428571428572</v>
       </c>
       <c r="E11" s="6">
-        <v>3.3667788269231558E-2</v>
+        <v>1.146243259216048E-2</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5">
-        <v>2.4722222222222223</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="E12" s="6">
-        <v>8.3242675567716772E-3</v>
+        <v>1.2440532989417009E-2</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5">
-        <v>2.4</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="E13" s="6">
-        <v>2.0311818108086743E-2</v>
+        <v>4.4093614110389201E-2</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5">
-        <v>2.3809523809523814</v>
+        <v>2.25</v>
       </c>
       <c r="E14" s="6">
-        <v>3.6670819779886746E-2</v>
+        <v>2.9015363531383769E-2</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5">
-        <v>2.3333333333333335</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E15" s="6">
-        <v>4.9666208661376795E-3</v>
+        <v>3.2104492187500007E-2</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5">
-        <v>2.291666666666667</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="E16" s="6">
-        <v>3.5686908572796543E-2</v>
+        <v>5.8381852298153344E-3</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5">
-        <v>2.2857142857142856</v>
+        <v>2.1875</v>
       </c>
       <c r="E17" s="6">
-        <v>3.8802725694710299E-2</v>
+        <v>1.1471334742465426E-2</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5">
-        <v>2.2222222222222223</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="E18" s="6">
-        <v>5.4585081678644341E-3</v>
+        <v>1.3906927548624015E-2</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5">
-        <v>2.2153846153846155</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="E19" s="6">
-        <v>3.1102106219000857E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.7414862617056457E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2.125</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3.0348700921589644E-2</v>
+        <v>1.8188208305876258E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E20" s="18">
+        <v>6.9081241217593028E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1.339996471233104E-2</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.1745529210126854E-2</v>
+      <c r="C22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1.4417772698268071E-2</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5">
-        <v>2.0740740740740744</v>
+        <v>2</v>
       </c>
       <c r="E23" s="6">
-        <v>1.2275947313340215E-2</v>
+        <v>2.4110110551390906E-2</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5">
-        <v>2.0571428571428574</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
-        <v>2.0189936164502261E-2</v>
+        <v>4.8995578721988196E-2</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="4" t="s">
-        <v>23</v>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2.9471316278634696E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.2070144903690178E-2</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="4" t="s">
-        <v>24</v>
+      <c r="C26" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4.742065558431962E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2.5721420742506534E-2</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D27" s="5">
         <v>0.5</v>
       </c>
       <c r="E27" s="8">
-        <v>2.778435101099011E-2</v>
+        <v>2.6952221562096968E-2</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D28" s="5">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="8">
-        <v>3.3901103542228937E-2</v>
+        <v>3.0201481093602066E-2</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="8">
-        <v>2.2645999311240107E-2</v>
+        <v>4.3824550637027657E-2</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5">
-        <v>0.44999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="E30" s="8">
-        <v>4.8566856559801017E-2</v>
+        <v>2.1098163370616457E-2</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D31" s="5">
-        <v>0.44444444444444442</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="E31" s="8">
-        <v>8.2817934375614376E-3</v>
+        <v>3.0766007995518711E-2</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5">
-        <v>0.43076923076923074</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="E32" s="8">
-        <v>7.9509152798543647E-3</v>
+        <v>4.7622464560334553E-3</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5">
-        <v>0.42790697674418604</v>
+        <v>0.46938775510204073</v>
       </c>
       <c r="E33" s="8">
-        <v>2.5749338586498631E-2</v>
+        <v>2.5424042264295996E-2</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D34" s="5">
-        <v>0.42352941176470588</v>
+        <v>0.46913580246913578</v>
       </c>
       <c r="E34" s="8">
-        <v>4.5633561348936086E-3</v>
+        <v>2.9556332401251884E-4</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D35" s="5">
-        <v>0.41379310344827591</v>
+        <v>0.45714285714285718</v>
       </c>
       <c r="E35" s="8">
-        <v>3.2505371478556706E-2</v>
+        <v>1.9674847954214546E-2</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D36" s="5">
-        <v>0.4</v>
+        <v>0.45714285714285718</v>
       </c>
       <c r="E36" s="8">
-        <v>4.5298574762530686E-2</v>
+        <v>3.4563964880354514E-2</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D37" s="5">
-        <v>0.39999999999999997</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="E37" s="8">
-        <v>1.1257552636410874E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.390625</v>
-      </c>
-      <c r="E38" s="11">
-        <v>2.6562152332635144E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="E39" s="14">
-        <v>2.1742978465236637E-2</v>
+        <v>3.9968523713957711E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3.2935221854144776E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2.1208613391909024E-2</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="E40" s="17">
-        <v>3.7749551350623717E-2</v>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2.4523417607585493E-3</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D41" s="5">
-        <v>0.36363636363636365</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="E41" s="8">
-        <v>2.7172643339589356E-2</v>
+        <v>5.6554817548155473E-3</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D42" s="5">
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="E42" s="8">
-        <v>1.8622747383376138E-2</v>
+        <v>3.0348700921589644E-2</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D43" s="5">
-        <v>0.3</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="E43" s="8">
-        <v>1.2307551821486282E-2</v>
+        <v>1.1354384599263826E-2</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D44" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E44" s="8">
-        <v>8.2373541451080928E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E45" s="20">
-        <v>3.7749551350623717E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="2" t="s">
+        <v>1.4955201223320243E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E45" s="8">
+        <v>3.7602230320987563E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E46" s="8">
+        <v>4.5633561348935999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2.3237231399954636E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.40584415584415584</v>
+      </c>
+      <c r="E48" s="8">
+        <v>3.3111287192563454E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.39534883720930231</v>
+      </c>
+      <c r="E49" s="8">
+        <v>4.0189872325221282E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.39215686274509803</v>
+      </c>
+      <c r="E50" s="8">
+        <v>3.90325038481572E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E51" s="8">
+        <v>4.3392937311025824E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.35683453237410073</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1.4328563727398307E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="E53" s="8">
+        <v>1.6010965704545611E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2.6952221562096968E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E55" s="8">
+        <v>4.9825262780576765E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.32653061224489793</v>
+      </c>
+      <c r="E56" s="8">
+        <v>4.994868361080883E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="E57" s="8">
+        <v>4.6532740259863726E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1.5779776410289402E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E59" s="8">
+        <v>3.8925537672858265E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="15">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E60" s="16">
+        <v>2.0900094837275774E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E56" s="6">
-        <v>3.7996600196887019E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="5">
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1.1589184002533635E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C58" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="E58" s="6">
-        <v>9.6789516482072881E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C59" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="E59" s="6">
-        <v>3.3042526634281658E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C60" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="5">
-        <v>2.5961538461538463</v>
-      </c>
-      <c r="E60" s="6">
-        <v>6.6011582476433871E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="5">
-        <v>2.4827586206896552</v>
-      </c>
-      <c r="E61" s="6">
-        <v>5.9297001755287849E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="5">
-        <v>2.4615384615384617</v>
-      </c>
-      <c r="E62" s="6">
-        <v>4.1666638862107239E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="E63" s="6">
-        <v>2.7172643339589356E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="5">
-        <v>2.3571428571428572</v>
-      </c>
-      <c r="E64" s="6">
-        <v>1.146243259216048E-2</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D65" s="5">
-        <v>2.2916666666666665</v>
+        <v>3.25</v>
       </c>
       <c r="E65" s="6">
-        <v>1.2440532989417009E-2</v>
+        <v>1.0611745107949377E-2</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" s="4" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D66" s="5">
-        <v>2.2857142857142856</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="E66" s="6">
-        <v>4.4093614110389201E-2</v>
+        <v>2.9631062008070486E-3</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" s="4" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D67" s="5">
-        <v>2.25</v>
+        <v>2.8125</v>
       </c>
       <c r="E67" s="6">
-        <v>2.9015363531383769E-2</v>
+        <v>8.9605948962954325E-3</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D68" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="E68" s="6">
-        <v>3.2104492187500007E-2</v>
+        <v>9.5419935150238121E-3</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D69" s="5">
-        <v>2.1999999999999997</v>
+        <v>2.75</v>
       </c>
       <c r="E69" s="6">
-        <v>5.8381852298153344E-3</v>
+        <v>3.5168452805356964E-2</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D70" s="5">
-        <v>2.1875</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E70" s="6">
-        <v>1.1471334742465426E-2</v>
+        <v>3.8927836173194764E-2</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" s="4" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D71" s="5">
-        <v>2.1818181818181817</v>
+        <v>2.5733333333333333</v>
       </c>
       <c r="E71" s="6">
-        <v>1.3906927548624015E-2</v>
+        <v>2.4851287400574119E-2</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D72" s="5">
-        <v>2.1428571428571428</v>
+        <v>2.5</v>
       </c>
       <c r="E72" s="6">
-        <v>1.8188208305876258E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="10">
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="E73" s="22">
-        <v>6.9081241217593028E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="13">
-        <v>2</v>
-      </c>
-      <c r="E74" s="14">
-        <v>1.339996471233104E-2</v>
+        <v>3.3145500263773671E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="E73" s="6">
+        <v>9.5419935150238121E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2.7172643339589356E-2</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C75" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="16">
-        <v>2</v>
-      </c>
-      <c r="E75" s="24">
-        <v>1.4417772698268071E-2</v>
+      <c r="C75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2.2741935483870965</v>
+      </c>
+      <c r="E75" s="6">
+        <v>3.6416219753894606E-2</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D76" s="5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="E76" s="6">
-        <v>2.4110110551390906E-2</v>
+        <v>7.4904338812745224E-3</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D77" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="E77" s="6">
+        <v>3.0466291662170967E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="E78" s="6">
+        <v>7.9994338096036916E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="E79" s="6">
+        <v>3.4316599206396389E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2.0370370370370368</v>
+      </c>
+      <c r="E80" s="6">
+        <v>3.6642367190032013E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="5">
         <v>2</v>
       </c>
-      <c r="E77" s="6">
-        <v>4.8995578721988196E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C78" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="8">
-        <v>2.2070144903690178E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C79" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E79" s="8">
-        <v>2.5721420742506534E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C80" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E80" s="8">
+      <c r="E81" s="6">
         <v>2.6952221562096968E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C81" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E81" s="8">
-        <v>3.0201481093602066E-2</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C82" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D82" s="5">
         <v>0.5</v>
       </c>
-      <c r="E82" s="8">
-        <v>4.3824550637027657E-2</v>
+      <c r="E82" s="6">
+        <v>1.6964736255752063E-2</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C83" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D83" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="E83" s="8">
-        <v>2.1098163370616457E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1.6964736255752063E-2</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D84" s="5">
-        <v>0.47368421052631576</v>
-      </c>
-      <c r="E84" s="8">
-        <v>3.0766007995518711E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2.2203904140477262E-2</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D85" s="5">
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="E85" s="8">
-        <v>4.7622464560334553E-3</v>
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="6">
+        <v>4.9825262780576765E-2</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D86" s="5">
-        <v>0.46938775510204073</v>
-      </c>
-      <c r="E86" s="8">
-        <v>2.5424042264295996E-2</v>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1.6130089900092535E-2</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D87" s="5">
-        <v>0.46913580246913578</v>
-      </c>
-      <c r="E87" s="8">
-        <v>2.9556332401251884E-4</v>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1.6130089900092535E-2</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C88" s="7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D88" s="5">
-        <v>0.45714285714285718</v>
-      </c>
-      <c r="E88" s="8">
-        <v>1.9674847954214546E-2</v>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E88" s="6">
+        <v>9.3372723010666284E-5</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C89" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D89" s="5">
-        <v>0.45714285714285718</v>
-      </c>
-      <c r="E89" s="8">
-        <v>3.4563964880354514E-2</v>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E89" s="6">
+        <v>2.7172643339589356E-2</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C90" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D90" s="5">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="E90" s="8">
-        <v>3.9968523713957711E-2</v>
+        <v>0.375</v>
+      </c>
+      <c r="E90" s="6">
+        <v>3.6931205327175288E-3</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C91" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D91" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="E91" s="8">
-        <v>3.2935221854144776E-2</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1.668998431583146E-2</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C92" s="7" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D92" s="5">
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="E92" s="8">
-        <v>2.1208613391909024E-2</v>
+        <v>0.3125</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1.8622747383376138E-2</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C93" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D93" s="5">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E93" s="8">
-        <v>2.4523417607585493E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C94" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="5">
-        <v>0.44117647058823528</v>
-      </c>
-      <c r="E94" s="8">
-        <v>5.6554817548155473E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C95" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="E95" s="8">
-        <v>3.0348700921589644E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C96" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="5">
-        <v>0.42307692307692307</v>
-      </c>
-      <c r="E96" s="8">
-        <v>1.1354384599263826E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C97" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1.2249151231906055E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E94" s="21">
+        <v>2.5721420742506534E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C100" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C101" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" s="5">
+        <v>6</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1.506769856284732E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C102" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" s="5">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E102" s="8">
+        <v>2.947041491219202E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C103" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="5">
+        <v>4.2091836734693873</v>
+      </c>
+      <c r="E103" s="8">
+        <v>1.4337691394587362E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C104" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="E104" s="8">
+        <v>3.5077185609411997E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C105" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E105" s="8">
+        <v>3.0466291662170981E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C106" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E106" s="8">
+        <v>2.755646371143881E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C107" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E107" s="8">
+        <v>4.3192205598225689E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C108" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="5">
+        <v>2.1714285714285713</v>
+      </c>
+      <c r="E108" s="8">
+        <v>3.4592598048332868E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E109" s="8">
+        <v>9.6279247253798252E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E110" s="8">
+        <v>4.8566856559801017E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C111" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1.261234944377755E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C112" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2</v>
+      </c>
+      <c r="E112" s="8">
+        <v>3.6909464977954512E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C113" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E113" s="8">
+        <v>1.9256238174914793E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C114" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E114" s="8">
+        <v>2.1138808118928654E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C115" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E115" s="8">
+        <v>3.9338704922658785E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C116" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="5">
+        <v>0.42767295597484278</v>
+      </c>
+      <c r="E116" s="8">
+        <v>2.8825644586040894E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C117" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E97" s="8">
-        <v>1.4955201223320243E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C98" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E98" s="8">
-        <v>3.7602230320987563E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C99" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D99" s="5">
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="E99" s="8">
-        <v>4.5633561348935999E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C100" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" s="5">
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="E100" s="8">
-        <v>2.3237231399954636E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C101" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" s="5">
-        <v>0.40584415584415584</v>
-      </c>
-      <c r="E101" s="8">
-        <v>3.3111287192563454E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C102" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="5">
-        <v>0.39534883720930231</v>
-      </c>
-      <c r="E102" s="8">
-        <v>4.0189872325221282E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C103" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="5">
-        <v>0.39215686274509803</v>
-      </c>
-      <c r="E103" s="8">
-        <v>3.90325038481572E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C104" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" s="5">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="E104" s="8">
-        <v>4.3392937311025824E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C105" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D105" s="5">
-        <v>0.35683453237410073</v>
-      </c>
-      <c r="E105" s="8">
-        <v>1.4328563727398307E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C106" s="7" t="s">
+      <c r="E117" s="8">
+        <v>3.0892770891162023E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C118" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E118" s="8">
+        <v>9.6789516482072881E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C119" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" s="5">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="E119" s="8">
+        <v>3.1874195103557081E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C120" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="5">
+        <v>0.34090909090909088</v>
+      </c>
+      <c r="E120" s="8">
+        <v>5.2281385711868975E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C121" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="5">
+        <v>0.31707317073170738</v>
+      </c>
+      <c r="E121" s="8">
+        <v>2.0741480236205583E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C122" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="5">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E122" s="8">
+        <v>1.0611745107949377E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C123" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D106" s="5">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="E106" s="8">
-        <v>1.6010965704545611E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C107" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E107" s="8">
-        <v>2.6952221562096968E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C108" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D108" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E108" s="8">
-        <v>4.9825262780576765E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C109" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D109" s="5">
-        <v>0.32653061224489793</v>
-      </c>
-      <c r="E109" s="8">
-        <v>4.994868361080883E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C110" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="5">
-        <v>0.3125</v>
-      </c>
-      <c r="E110" s="8">
-        <v>4.6532740259863726E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C111" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D111" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E111" s="8">
-        <v>1.5779776410289402E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C112" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" s="5">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="E112" s="8">
-        <v>3.8925537672858265E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E113" s="20">
-        <v>2.0900094837275774E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C117" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C118" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="E118" s="6">
-        <v>1.0611745107949377E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C119" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" s="5">
-        <v>2.916666666666667</v>
-      </c>
-      <c r="E119" s="6">
-        <v>2.9631062008070486E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C120" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="5">
-        <v>2.8125</v>
-      </c>
-      <c r="E120" s="6">
-        <v>8.9605948962954325E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C121" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D121" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="E121" s="6">
-        <v>9.5419935150238121E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C122" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D122" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="E122" s="6">
-        <v>3.5168452805356964E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C123" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D123" s="5">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E123" s="6">
-        <v>3.8927836173194764E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C124" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="5">
-        <v>2.5733333333333333</v>
-      </c>
-      <c r="E124" s="6">
-        <v>2.4851287400574119E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C125" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D125" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E125" s="6">
-        <v>3.3145500263773671E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C126" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="E126" s="6">
-        <v>9.5419935150238121E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C127" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D127" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="E127" s="6">
-        <v>2.7172643339589356E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C128" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D128" s="5">
-        <v>2.2741935483870965</v>
-      </c>
-      <c r="E128" s="6">
-        <v>3.6416219753894606E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C129" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D129" s="5">
-        <v>2.25</v>
-      </c>
-      <c r="E129" s="6">
-        <v>7.4904338812745224E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C130" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D130" s="5">
-        <v>2.25</v>
-      </c>
-      <c r="E130" s="6">
-        <v>3.0466291662170967E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C131" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D131" s="5">
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="E131" s="6">
-        <v>7.9994338096036916E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C132" s="4" t="s">
+        <v>0.26842105263157895</v>
+      </c>
+      <c r="E123" s="8">
+        <v>4.8459247561386247E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D132" s="5">
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="E132" s="6">
-        <v>3.4316599206396389E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C133" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D133" s="5">
-        <v>2.0370370370370368</v>
-      </c>
-      <c r="E133" s="6">
-        <v>3.6642367190032013E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C134" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2</v>
-      </c>
-      <c r="E134" s="6">
-        <v>2.6952221562096968E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C135" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D135" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E135" s="6">
-        <v>1.6964736255752063E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C136" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D136" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E136" s="6">
-        <v>1.6964736255752063E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C137" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D137" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E137" s="6">
-        <v>2.2203904140477262E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C138" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D138" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E138" s="6">
-        <v>4.9825262780576765E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C139" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D139" s="5">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="E139" s="6">
-        <v>1.6130089900092535E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C140" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D140" s="5">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="E140" s="6">
-        <v>1.6130089900092535E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C141" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D141" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E141" s="6">
-        <v>9.3372723010666284E-5</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C142" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D142" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E142" s="6">
-        <v>2.7172643339589356E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C143" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D143" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="E143" s="6">
-        <v>3.6931205327175288E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C144" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D144" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E144" s="6">
-        <v>1.668998431583146E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C145" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D145" s="5">
-        <v>0.3125</v>
-      </c>
-      <c r="E145" s="6">
-        <v>1.8622747383376138E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C146" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D146" s="5">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E146" s="6">
-        <v>1.2249151231906055E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D147" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E147" s="25">
-        <v>2.5721420742506534E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C153" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E153" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C154" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D154" s="5">
-        <v>6</v>
-      </c>
-      <c r="E154" s="8">
-        <v>1.506769856284732E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C155" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D155" s="5">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="E155" s="8">
-        <v>2.947041491219202E-5</v>
-      </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C156" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D156" s="5">
-        <v>4.2091836734693873</v>
-      </c>
-      <c r="E156" s="8">
-        <v>1.4337691394587362E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C157" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D157" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="E157" s="8">
-        <v>3.5077185609411997E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C158" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D158" s="5">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E158" s="8">
-        <v>3.0466291662170981E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C159" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D159" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E159" s="8">
-        <v>2.755646371143881E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C160" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D160" s="5">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E160" s="8">
-        <v>4.3192205598225689E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C161" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D161" s="5">
-        <v>2.1714285714285713</v>
-      </c>
-      <c r="E161" s="8">
-        <v>3.4592598048332868E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C162" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D162" s="5">
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="E162" s="8">
-        <v>9.6279247253798252E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C163" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D163" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="E163" s="8">
-        <v>4.8566856559801017E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C164" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D164" s="5">
-        <v>2</v>
-      </c>
-      <c r="E164" s="8">
-        <v>1.261234944377755E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C165" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D165" s="5">
-        <v>2</v>
-      </c>
-      <c r="E165" s="8">
-        <v>3.6909464977954512E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C166" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D166" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E166" s="8">
-        <v>1.9256238174914793E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C167" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D167" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E167" s="8">
-        <v>2.1138808118928654E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C168" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D168" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E168" s="8">
-        <v>3.9338704922658785E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C169" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D169" s="5">
-        <v>0.42767295597484278</v>
-      </c>
-      <c r="E169" s="8">
-        <v>2.8825644586040894E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C170" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D170" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E170" s="8">
-        <v>3.0892770891162023E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C171" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D171" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E171" s="8">
-        <v>9.6789516482072881E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C172" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D172" s="5">
-        <v>0.38095238095238093</v>
-      </c>
-      <c r="E172" s="8">
-        <v>3.1874195103557081E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C173" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D173" s="5">
-        <v>0.34090909090909088</v>
-      </c>
-      <c r="E173" s="8">
-        <v>5.2281385711868975E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C174" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D174" s="5">
-        <v>0.31707317073170738</v>
-      </c>
-      <c r="E174" s="8">
-        <v>2.0741480236205583E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C175" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D175" s="5">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="E175" s="8">
-        <v>1.0611745107949377E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C176" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D176" s="5">
-        <v>0.26842105263157895</v>
-      </c>
-      <c r="E176" s="8">
-        <v>4.8459247561386247E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D177" s="19">
+      <c r="D124" s="15">
         <v>0.22413793103448276</v>
       </c>
-      <c r="E177" s="20">
+      <c r="E124" s="16">
         <v>4.3507592634040936E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D45">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D113">
+  <conditionalFormatting sqref="D3:D60">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13840,7 +10123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D118:D147">
+  <conditionalFormatting sqref="D65:D94">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13852,7 +10135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D154:D177">
+  <conditionalFormatting sqref="D101:D124">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/mouse_proteomics/plotting_protein_changes.xlsx
+++ b/mouse_proteomics/plotting_protein_changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferwilson/Documents/phagocytosis_beta2Agonists/mouse_proteomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A0332-AF9D-F540-BF7F-3B0597C778EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9542FFEC-9256-3E45-8E2B-8E51A991E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="520" windowWidth="33820" windowHeight="29220" xr2:uid="{9A9BF76C-7D80-1D4C-BA5C-5A3634190ECD}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="33820" windowHeight="20380" xr2:uid="{9A9BF76C-7D80-1D4C-BA5C-5A3634190ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8836,7 +8836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E29F-BF9B-E54D-A877-1E42A23EB308}">
   <dimension ref="C1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD53"/>
     </sheetView>
   </sheetViews>
